--- a/DosingApp/DosingApp/Resources/Reports/Отчетность v.5.xlsx
+++ b/DosingApp/DosingApp/Resources/Reports/Отчетность v.5.xlsx
@@ -894,7 +894,7 @@
   <dimension ref="B2:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -924,7 +924,7 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>2</v>
       </c>
     </row>
